--- a/CADToolBox/CADToolBox.Resource/Template/固定支架输入界面.xlsx
+++ b/CADToolBox/CADToolBox.Resource/Template/固定支架输入界面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027CDA7-3653-42E4-800D-1BA0DC477644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22AA9C6-6FFB-4FC1-98CC-2DB9BE2C9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1173,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="H4" s="27"/>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="20">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12"/>
       <c r="H5" s="27"/>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="20">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>8</v>
@@ -1496,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="20">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>8</v>
@@ -1536,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="20">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>8</v>
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="20">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>8</v>
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="O16" s="20">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>8</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B22" s="14">
         <f xml:space="preserve"> B1 * B5 + B7 * (B5 - 1)</f>
-        <v>32264</v>
+        <v>16122</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>8</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E25" s="11">
         <f xml:space="preserve"> B22 - SUM(B25:B45)</f>
-        <v>832</v>
+        <v>-15310</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>8</v>
@@ -2032,7 +2032,7 @@
       <formula>$O$6 = "混凝土法兰板二次灌浆"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{4E43099C-1FA1-4F5B-A1C3-C6D4FD80E9F3}">
       <formula1>"1,2"</formula1>
     </dataValidation>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B4" s="2">
         <f>Home!B4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B5" s="2">
         <f>Home!B5</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="G14" s="2">
         <f>Home!J14</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>8</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="K14" s="2">
         <f>Home!O14</f>
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>8</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B16" s="2">
         <f>Home!B16</f>
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="G16" s="2">
         <f>Home!J16</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K16" s="2">
         <f>Home!O16</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>8</v>
